--- a/02_Software/ECAT/ESI_AXISCOMMHUB/TEST/AxisCommHub_test.xlsx
+++ b/02_Software/ECAT/ESI_AXISCOMMHUB/TEST/AxisCommHub_test.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Projektarbeit_Docs\02_Software\ECAT\ESI_AXISCOMMHUB\TEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0919CEFF-8182-4B9B-B479-983AB79E449C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18416299-4A1A-470C-9E1B-FD84236A303C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Profile" sheetId="11" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Profile!$B$10:$P$55</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Profile!$B$1:$P$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Profile!$B$10:$P$80</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Profile!$B$1:$P$81</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="89">
   <si>
     <t>Index</t>
   </si>
@@ -300,9 +300,6 @@
     <t>m</t>
   </si>
   <si>
-    <t>UINT16</t>
-  </si>
-  <si>
     <t xml:space="preserve">Index distance </t>
   </si>
   <si>
@@ -315,61 +312,103 @@
     <t>0x10</t>
   </si>
   <si>
+    <t>TEMPERATURE0</t>
+  </si>
+  <si>
+    <t>TEMPERATURE1</t>
+  </si>
+  <si>
+    <t>TEMPERATURE2</t>
+  </si>
+  <si>
+    <t>TEMPERATURE3</t>
+  </si>
+  <si>
+    <t>TEMPERATURE4</t>
+  </si>
+  <si>
+    <t>TEMPERATURE5</t>
+  </si>
+  <si>
+    <t>TEMPERATURE6</t>
+  </si>
+  <si>
+    <t>TEMPERATURE7</t>
+  </si>
+  <si>
+    <t>TEMPERATURE8</t>
+  </si>
+  <si>
+    <t>TEMPERATURE9</t>
+  </si>
+  <si>
+    <t>TEMPERATURE10</t>
+  </si>
+  <si>
+    <t>TEMPERATURE11</t>
+  </si>
+  <si>
+    <t>TEMPERATURE12</t>
+  </si>
+  <si>
+    <t>TEMPERATURE13</t>
+  </si>
+  <si>
+    <t>TEMPERATURE14</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>EVENT</t>
+  </si>
+  <si>
+    <t>ERROR</t>
+  </si>
+  <si>
+    <t>COMMAND</t>
+  </si>
+  <si>
+    <t>TEST VALUE0</t>
+  </si>
+  <si>
+    <t>TEST VALUE1</t>
+  </si>
+  <si>
+    <t>TEST VALUE2</t>
+  </si>
+  <si>
+    <t>UNSIGNED16</t>
+  </si>
+  <si>
+    <t>INTEGER16</t>
+  </si>
+  <si>
+    <t>MasterCMDs</t>
+  </si>
+  <si>
     <t>0x6000</t>
   </si>
   <si>
-    <t>UINT</t>
-  </si>
-  <si>
-    <t>BOOLEAN</t>
-  </si>
-  <si>
-    <t>pad_15</t>
-  </si>
-  <si>
-    <t>Results</t>
-  </si>
-  <si>
-    <t>Results 1</t>
-  </si>
-  <si>
-    <t>Results 2</t>
-  </si>
-  <si>
-    <t>Toggle</t>
-  </si>
-  <si>
     <t>tx</t>
   </si>
   <si>
+    <t>rw</t>
+  </si>
+  <si>
     <t>0x7000</t>
   </si>
   <si>
-    <t>Setpoint Values</t>
-  </si>
-  <si>
-    <t>Value1</t>
-  </si>
-  <si>
-    <t>Value2</t>
-  </si>
-  <si>
-    <t>rw</t>
+    <t>SystemStatus</t>
   </si>
   <si>
     <t>rx</t>
   </si>
   <si>
-    <t>0x8000</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
-    <t>Paramters</t>
-  </si>
-  <si>
-    <t>Inc 1</t>
+    <t>0x6001</t>
   </si>
 </sst>
 </file>
@@ -444,7 +483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
@@ -494,6 +533,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
@@ -836,32 +878,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T906"/>
+  <dimension ref="A1:T931"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L45" sqref="L45"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="16" customWidth="1"/>
-    <col min="3" max="5" width="14.6640625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="40.6640625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="7.6640625" style="16" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" style="16" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" style="16" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" style="16" customWidth="1"/>
-    <col min="13" max="13" width="7.6640625" style="16" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.88671875" style="16" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="35.6640625" style="16" customWidth="1"/>
-    <col min="17" max="16384" width="10.6640625" style="16"/>
+    <col min="1" max="1" width="3.85546875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="16" customWidth="1"/>
+    <col min="3" max="5" width="14.7109375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="40.7109375" style="16" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7.7109375" style="16" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="16" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" style="16" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="16" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="16" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.7109375" style="16" customWidth="1"/>
+    <col min="17" max="16384" width="10.7109375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="2" t="s">
         <v>18</v>
@@ -873,25 +915,25 @@
         <v>19</v>
       </c>
       <c r="E1" s="2"/>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
       <c r="Q1" s="17"/>
       <c r="R1" s="17"/>
       <c r="S1" s="17"/>
       <c r="T1" s="17"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="2" t="s">
         <v>20</v>
@@ -901,111 +943,111 @@
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
       <c r="Q2" s="17"/>
       <c r="R2" s="17"/>
       <c r="S2" s="17"/>
       <c r="T2" s="17"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="1"/>
       <c r="C3" s="5"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
       <c r="Q3" s="17"/>
       <c r="R3" s="17"/>
       <c r="S3" s="17"/>
       <c r="T3" s="17"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="1"/>
       <c r="C4" s="5"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
       <c r="Q4" s="17"/>
       <c r="R4" s="17"/>
       <c r="S4" s="17"/>
       <c r="T4" s="17"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
       <c r="Q5" s="17"/>
       <c r="R5" s="17"/>
       <c r="S5" s="17"/>
       <c r="T5" s="17"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
       <c r="Q6" s="17"/>
       <c r="R6" s="17"/>
       <c r="S6" s="17"/>
       <c r="T6" s="17"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1027,7 +1069,7 @@
       <c r="S7" s="17"/>
       <c r="T7" s="17"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="7" t="s">
         <v>21</v>
@@ -1047,7 +1089,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1065,7 +1107,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="8" t="s">
         <v>0</v>
@@ -1113,7 +1155,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="15" t="s">
         <v>22</v>
@@ -1135,7 +1177,7 @@
       <c r="O11" s="15"/>
       <c r="P11" s="15"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -1153,7 +1195,7 @@
       <c r="O12"/>
       <c r="P12"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1171,7 +1213,7 @@
       <c r="O13"/>
       <c r="P13"/>
     </row>
-    <row r="14" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="14" t="s">
         <v>35</v>
@@ -1193,7 +1235,7 @@
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1211,7 +1253,7 @@
       <c r="O15"/>
       <c r="P15"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1229,7 +1271,7 @@
       <c r="O16"/>
       <c r="P16"/>
     </row>
-    <row r="17" spans="1:16" s="18" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" s="18" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="14" t="s">
         <v>24</v>
@@ -1251,7 +1293,7 @@
       <c r="O17" s="14"/>
       <c r="P17" s="14"/>
     </row>
-    <row r="18" spans="1:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1269,7 +1311,7 @@
       <c r="O18"/>
       <c r="P18"/>
     </row>
-    <row r="19" spans="1:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1287,7 +1329,7 @@
       <c r="O19"/>
       <c r="P19"/>
     </row>
-    <row r="20" spans="1:16" s="18" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" s="18" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="14" t="s">
         <v>26</v>
@@ -1309,7 +1351,7 @@
       <c r="O20" s="14"/>
       <c r="P20" s="14"/>
     </row>
-    <row r="21" spans="1:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1327,7 +1369,7 @@
       <c r="O21"/>
       <c r="P21"/>
     </row>
-    <row r="22" spans="1:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1345,7 +1387,7 @@
       <c r="O22"/>
       <c r="P22"/>
     </row>
-    <row r="23" spans="1:16" s="18" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" s="18" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="14" t="s">
         <v>27</v>
@@ -1367,7 +1409,7 @@
       <c r="O23" s="14"/>
       <c r="P23" s="14"/>
     </row>
-    <row r="24" spans="1:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1385,7 +1427,7 @@
       <c r="O24"/>
       <c r="P24"/>
     </row>
-    <row r="25" spans="1:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1403,7 +1445,7 @@
       <c r="O25"/>
       <c r="P25"/>
     </row>
-    <row r="26" spans="1:16" s="18" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" s="18" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="14" t="s">
         <v>29</v>
@@ -1425,7 +1467,7 @@
       <c r="O26" s="14"/>
       <c r="P26" s="14"/>
     </row>
-    <row r="27" spans="1:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1443,7 +1485,7 @@
       <c r="O27"/>
       <c r="P27"/>
     </row>
-    <row r="28" spans="1:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1461,7 +1503,7 @@
       <c r="O28"/>
       <c r="P28"/>
     </row>
-    <row r="29" spans="1:16" s="18" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" s="18" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="14" t="s">
         <v>37</v>
@@ -1483,7 +1525,7 @@
       <c r="O29" s="14"/>
       <c r="P29" s="14"/>
     </row>
-    <row r="30" spans="1:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1501,7 +1543,7 @@
       <c r="O30"/>
       <c r="P30"/>
     </row>
-    <row r="31" spans="1:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1519,7 +1561,7 @@
       <c r="O31"/>
       <c r="P31"/>
     </row>
-    <row r="32" spans="1:16" s="18" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" s="18" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="14" t="s">
         <v>38</v>
@@ -1541,7 +1583,7 @@
       <c r="O32" s="14"/>
       <c r="P32" s="14"/>
     </row>
-    <row r="33" spans="1:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1559,7 +1601,7 @@
       <c r="O33"/>
       <c r="P33"/>
     </row>
-    <row r="34" spans="1:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1577,7 +1619,7 @@
       <c r="O34"/>
       <c r="P34"/>
     </row>
-    <row r="35" spans="1:16" s="18" customFormat="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" s="18" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="14" t="s">
         <v>23</v>
@@ -1599,10 +1641,10 @@
       <c r="O35" s="14"/>
       <c r="P35" s="14"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>50</v>
@@ -1610,7 +1652,7 @@
       <c r="D36" s="11"/>
       <c r="E36" s="13"/>
       <c r="F36" s="13" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
@@ -1618,25 +1660,25 @@
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M36" s="4"/>
       <c r="N36"/>
       <c r="O36"/>
       <c r="P36"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
-      <c r="D37" s="11">
+      <c r="D37" s="22">
         <v>1</v>
       </c>
-      <c r="E37" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>62</v>
+      <c r="E37" t="s">
+        <v>79</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>56</v>
       </c>
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
@@ -1644,27 +1686,27 @@
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="N37"/>
       <c r="O37"/>
       <c r="P37"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
-      <c r="D38" s="11">
+      <c r="D38" s="22">
         <v>2</v>
       </c>
-      <c r="E38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>63</v>
+      <c r="E38" t="s">
+        <v>79</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>57</v>
       </c>
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
@@ -1672,27 +1714,27 @@
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
       <c r="L38" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="N38"/>
       <c r="O38"/>
       <c r="P38"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
-      <c r="D39" s="11">
+      <c r="D39" s="22">
         <v>3</v>
       </c>
-      <c r="E39" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>64</v>
+      <c r="E39" t="s">
+        <v>79</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>58</v>
       </c>
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
@@ -1700,71 +1742,83 @@
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="N39"/>
       <c r="O39"/>
       <c r="P39"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
-      <c r="D40" s="11">
+      <c r="D40" s="22">
         <v>4</v>
       </c>
-      <c r="E40" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F40" s="13"/>
+      <c r="E40" t="s">
+        <v>79</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>59</v>
+      </c>
       <c r="G40" s="13"/>
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
+      <c r="L40" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="N40"/>
       <c r="O40"/>
       <c r="P40"/>
     </row>
-    <row r="41" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="13"/>
-      <c r="B41" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="14"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="22">
+        <v>5</v>
+      </c>
+      <c r="E41" t="s">
+        <v>79</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
-      <c r="B42" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D42" s="11"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13" t="s">
-        <v>67</v>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="22">
+        <v>6</v>
+      </c>
+      <c r="E42" t="s">
+        <v>79</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>61</v>
       </c>
       <c r="G42" s="13"/>
       <c r="H42" s="13"/>
@@ -1772,25 +1826,27 @@
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="M42" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="N42"/>
       <c r="O42"/>
       <c r="P42"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
-      <c r="D43" s="11">
-        <v>1</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>68</v>
+      <c r="D43" s="22">
+        <v>7</v>
+      </c>
+      <c r="E43" t="s">
+        <v>79</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>62</v>
       </c>
       <c r="G43" s="13"/>
       <c r="H43" s="13"/>
@@ -1798,27 +1854,27 @@
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="N43"/>
       <c r="O43"/>
       <c r="P43"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
-      <c r="D44" s="11">
-        <v>2</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F44" s="13" t="s">
-        <v>69</v>
+      <c r="D44" s="22">
+        <v>8</v>
+      </c>
+      <c r="E44" t="s">
+        <v>79</v>
+      </c>
+      <c r="F44" s="18" t="s">
+        <v>63</v>
       </c>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
@@ -1826,49 +1882,55 @@
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="N44"/>
       <c r="O44"/>
       <c r="P44"/>
     </row>
-    <row r="45" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="13"/>
-      <c r="B45" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="14"/>
-      <c r="N45" s="14"/>
-      <c r="O45" s="14"/>
-      <c r="P45" s="14"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="22">
+        <v>9</v>
+      </c>
+      <c r="E45" t="s">
+        <v>79</v>
+      </c>
+      <c r="F45" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
-      <c r="B46" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D46" s="11"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13" t="s">
-        <v>74</v>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="22">
+        <v>10</v>
+      </c>
+      <c r="E46" t="s">
+        <v>79</v>
+      </c>
+      <c r="F46" s="18" t="s">
+        <v>65</v>
       </c>
       <c r="G46" s="13"/>
       <c r="H46" s="13"/>
@@ -1876,25 +1938,27 @@
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="M46" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="N46"/>
       <c r="O46"/>
       <c r="P46"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
-      <c r="D47" s="11">
-        <v>1</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="F47" s="13" t="s">
-        <v>75</v>
+      <c r="D47" s="22">
+        <v>11</v>
+      </c>
+      <c r="E47" t="s">
+        <v>79</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>66</v>
       </c>
       <c r="G47" s="13"/>
       <c r="H47" s="13"/>
@@ -1902,97 +1966,129 @@
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="M47" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="N47"/>
       <c r="O47"/>
       <c r="P47"/>
     </row>
-    <row r="48" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="13"/>
-      <c r="B48" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="14"/>
-      <c r="N48" s="14"/>
-      <c r="O48" s="14"/>
-      <c r="P48" s="14"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="22">
+        <v>12</v>
+      </c>
+      <c r="E48" t="s">
+        <v>79</v>
+      </c>
+      <c r="F48" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
+      <c r="D49" s="22">
+        <v>13</v>
+      </c>
+      <c r="E49" t="s">
+        <v>79</v>
+      </c>
+      <c r="F49" s="18" t="s">
+        <v>68</v>
+      </c>
       <c r="G49" s="13"/>
       <c r="H49" s="13"/>
       <c r="I49" s="13"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
+      <c r="L49" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="N49"/>
       <c r="O49"/>
       <c r="P49"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
+      <c r="D50" s="22">
+        <v>14</v>
+      </c>
+      <c r="E50" t="s">
+        <v>79</v>
+      </c>
+      <c r="F50" s="18" t="s">
+        <v>69</v>
+      </c>
       <c r="G50" s="13"/>
       <c r="H50" s="13"/>
       <c r="I50" s="13"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
+      <c r="L50" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="N50"/>
       <c r="O50"/>
       <c r="P50"/>
     </row>
-    <row r="51" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="13"/>
-      <c r="B51" s="14" t="s">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="22">
         <v>15</v>
       </c>
-      <c r="C51" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
-      <c r="L51" s="14"/>
-      <c r="M51" s="14"/>
-      <c r="N51" s="14"/>
-      <c r="O51" s="14"/>
-      <c r="P51" s="14"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E51" t="s">
+        <v>79</v>
+      </c>
+      <c r="F51" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
       <c r="D52" s="11"/>
       <c r="E52" s="13"/>
       <c r="F52" s="13"/>
@@ -2007,2833 +2103,3383 @@
       <c r="O52"/>
       <c r="P52"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
+      <c r="B53" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>86</v>
+      </c>
       <c r="G53" s="13"/>
       <c r="H53" s="13"/>
       <c r="I53" s="13"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
+      <c r="L53" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="M53" s="4"/>
       <c r="N53"/>
       <c r="O53"/>
       <c r="P53"/>
     </row>
-    <row r="54" spans="1:16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="20"/>
-      <c r="L54" s="20"/>
-      <c r="M54" s="20"/>
-      <c r="N54" s="20"/>
-      <c r="O54" s="14"/>
-      <c r="P54" s="14"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="11">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>79</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
-      <c r="B55" t="s">
-        <v>49</v>
-      </c>
-      <c r="C55" t="s">
-        <v>50</v>
-      </c>
-      <c r="D55"/>
-      <c r="E55"/>
-      <c r="F55" t="s">
-        <v>19</v>
-      </c>
-      <c r="G55"/>
-      <c r="H55"/>
-      <c r="I55"/>
-      <c r="J55" t="s">
-        <v>51</v>
-      </c>
-      <c r="K55"/>
-      <c r="L55"/>
-      <c r="M55"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="11">
+        <v>2</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M55" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="N55"/>
       <c r="O55"/>
       <c r="P55"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
-      <c r="B56"/>
-      <c r="C56"/>
-      <c r="D56">
-        <v>1</v>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="11">
+        <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>52</v>
-      </c>
-      <c r="F56" t="s">
+        <v>79</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G56" t="s">
-        <v>56</v>
-      </c>
-      <c r="H56"/>
-      <c r="I56"/>
-      <c r="J56" t="s">
-        <v>51</v>
-      </c>
-      <c r="K56"/>
-      <c r="L56" t="s">
-        <v>54</v>
-      </c>
-      <c r="M56"/>
-      <c r="N56" s="21"/>
+      <c r="M56" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="N56"/>
       <c r="O56"/>
       <c r="P56"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
-      <c r="B57"/>
-      <c r="C57"/>
-      <c r="D57">
-        <v>2</v>
-      </c>
-      <c r="E57" t="s">
-        <v>52</v>
-      </c>
-      <c r="F57" t="s">
-        <v>55</v>
-      </c>
-      <c r="G57"/>
-      <c r="H57"/>
-      <c r="I57"/>
-      <c r="J57" t="s">
-        <v>51</v>
-      </c>
-      <c r="K57"/>
-      <c r="L57" t="s">
-        <v>54</v>
-      </c>
-      <c r="M57"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
       <c r="N57"/>
-      <c r="O57" s="4"/>
-      <c r="P57" s="4"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O57"/>
+      <c r="P57"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
-      <c r="B58"/>
-      <c r="C58"/>
-      <c r="D58"/>
-      <c r="E58"/>
-      <c r="F58"/>
-      <c r="G58"/>
-      <c r="H58"/>
-      <c r="I58"/>
-      <c r="J58"/>
-      <c r="K58"/>
-      <c r="L58"/>
-      <c r="M58"/>
-      <c r="N58" s="21"/>
-      <c r="O58" s="4"/>
-      <c r="P58" s="4"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
-      <c r="B59"/>
-      <c r="C59"/>
-      <c r="D59"/>
-      <c r="E59"/>
-      <c r="F59"/>
-      <c r="G59"/>
-      <c r="H59"/>
-      <c r="I59"/>
-      <c r="J59"/>
-      <c r="K59"/>
-      <c r="L59"/>
-      <c r="M59"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
       <c r="N59"/>
-      <c r="O59" s="4"/>
-      <c r="P59" s="4"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O59"/>
+      <c r="P59"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
-      <c r="N60" s="4"/>
-      <c r="O60" s="4"/>
-      <c r="P60" s="4"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
-      <c r="N61" s="4"/>
-      <c r="O61" s="4"/>
-      <c r="P61" s="4"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
-      <c r="N62" s="4"/>
-      <c r="O62" s="4"/>
-      <c r="P62" s="4"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61"/>
+    </row>
+    <row r="62" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="13"/>
+      <c r="B62" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="14"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="14"/>
+      <c r="N62" s="14"/>
+      <c r="O62" s="14"/>
+      <c r="P62" s="14"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
+      <c r="B63" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D63" s="11"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
+      <c r="L63" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="M63" s="4"/>
-      <c r="N63" s="4"/>
-      <c r="O63" s="4"/>
-      <c r="P63" s="4"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="P63"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
+      <c r="D64" s="11">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>79</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
-      <c r="N64" s="4"/>
-      <c r="O64" s="4"/>
-      <c r="P64" s="4"/>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L64" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="M64" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="N64"/>
+      <c r="O64"/>
+      <c r="P64"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
+      <c r="D65" s="11">
+        <v>2</v>
+      </c>
+      <c r="E65" t="s">
+        <v>79</v>
+      </c>
+      <c r="F65" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
-      <c r="M65" s="4"/>
-      <c r="N65" s="4"/>
-      <c r="O65" s="4"/>
-      <c r="P65" s="4"/>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L65" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="M65" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="N65"/>
+      <c r="O65"/>
+      <c r="P65"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
+      <c r="D66" s="11">
+        <v>3</v>
+      </c>
+      <c r="E66" t="s">
+        <v>79</v>
+      </c>
+      <c r="F66" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
-      <c r="M66" s="4"/>
-      <c r="N66" s="4"/>
-      <c r="O66" s="4"/>
-      <c r="P66" s="4"/>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L66" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="M66" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="N66"/>
+      <c r="O66"/>
+      <c r="P66"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
       <c r="C67" s="4"/>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D67" s="11">
+        <v>4</v>
+      </c>
+      <c r="E67" t="s">
+        <v>79</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="M67" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="N67"/>
+      <c r="O67"/>
+      <c r="P67"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
       <c r="C68" s="4"/>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D68" s="11"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68"/>
+      <c r="O68"/>
+      <c r="P68"/>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
       <c r="C69" s="4"/>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C70" s="4"/>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D69" s="11"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="13"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+      <c r="N69"/>
+      <c r="O69"/>
+      <c r="P69"/>
+    </row>
+    <row r="70" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="13"/>
+      <c r="B70" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="14"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="14"/>
+      <c r="N70" s="14"/>
+      <c r="O70" s="14"/>
+      <c r="P70" s="14"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
       <c r="C71" s="4"/>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D71" s="11"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="13"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71"/>
+      <c r="O71"/>
+      <c r="P71"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
       <c r="C72" s="4"/>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C73" s="4"/>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D72" s="11"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72"/>
+      <c r="O72"/>
+      <c r="P72"/>
+    </row>
+    <row r="73" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="13"/>
+      <c r="B73" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="14"/>
+      <c r="K73" s="14"/>
+      <c r="L73" s="14"/>
+      <c r="M73" s="14"/>
+      <c r="N73" s="14"/>
+      <c r="O73" s="14"/>
+      <c r="P73" s="14"/>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
       <c r="C74" s="4"/>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D74" s="11"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74"/>
+      <c r="O74"/>
+      <c r="P74"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
       <c r="C75" s="4"/>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C76" s="4"/>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D75" s="11"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75"/>
+      <c r="O75"/>
+      <c r="P75"/>
+    </row>
+    <row r="76" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="13"/>
+      <c r="B76" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="14"/>
+      <c r="J76" s="14"/>
+      <c r="K76" s="14"/>
+      <c r="L76" s="14"/>
+      <c r="M76" s="14"/>
+      <c r="N76" s="14"/>
+      <c r="O76" s="14"/>
+      <c r="P76" s="14"/>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
       <c r="C77" s="4"/>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D77" s="11"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77"/>
+      <c r="O77"/>
+      <c r="P77"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
       <c r="C78" s="4"/>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C79" s="4"/>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C80" s="4"/>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C81" s="4"/>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C82" s="4"/>
-    </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C83" s="4"/>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C84" s="4"/>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D78" s="11"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78"/>
+      <c r="O78"/>
+      <c r="P78"/>
+    </row>
+    <row r="79" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D79" s="20"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="20"/>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="20"/>
+      <c r="K79" s="20"/>
+      <c r="L79" s="20"/>
+      <c r="M79" s="20"/>
+      <c r="N79" s="20"/>
+      <c r="O79" s="14"/>
+      <c r="P79" s="14"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A80" s="4"/>
+      <c r="B80" t="s">
+        <v>49</v>
+      </c>
+      <c r="C80" t="s">
+        <v>50</v>
+      </c>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80" t="s">
+        <v>19</v>
+      </c>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80"/>
+      <c r="J80" t="s">
+        <v>51</v>
+      </c>
+      <c r="K80"/>
+      <c r="L80"/>
+      <c r="M80"/>
+      <c r="N80"/>
+      <c r="O80"/>
+      <c r="P80"/>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A81" s="4"/>
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81" t="s">
+        <v>79</v>
+      </c>
+      <c r="F81" t="s">
+        <v>52</v>
+      </c>
+      <c r="G81" t="s">
+        <v>55</v>
+      </c>
+      <c r="H81"/>
+      <c r="I81"/>
+      <c r="J81" t="s">
+        <v>51</v>
+      </c>
+      <c r="K81"/>
+      <c r="L81" t="s">
+        <v>53</v>
+      </c>
+      <c r="M81"/>
+      <c r="N81" s="21"/>
+      <c r="O81"/>
+      <c r="P81"/>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A82" s="4"/>
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82" t="s">
+        <v>79</v>
+      </c>
+      <c r="F82" t="s">
+        <v>54</v>
+      </c>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82"/>
+      <c r="J82" t="s">
+        <v>51</v>
+      </c>
+      <c r="K82"/>
+      <c r="L82" t="s">
+        <v>53</v>
+      </c>
+      <c r="M82"/>
+      <c r="N82"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="4"/>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A83" s="4"/>
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="I83"/>
+      <c r="J83"/>
+      <c r="K83"/>
+      <c r="L83"/>
+      <c r="M83"/>
+      <c r="N83" s="21"/>
+      <c r="O83" s="4"/>
+      <c r="P83" s="4"/>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84"/>
+      <c r="J84"/>
+      <c r="K84"/>
+      <c r="L84"/>
+      <c r="M84"/>
+      <c r="N84"/>
+      <c r="O84" s="4"/>
+      <c r="P84" s="4"/>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
       <c r="C85" s="4"/>
-    </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="4"/>
+      <c r="O85" s="4"/>
+      <c r="P85" s="4"/>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
       <c r="C86" s="4"/>
-    </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="4"/>
+      <c r="O86" s="4"/>
+      <c r="P86" s="4"/>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
       <c r="C87" s="4"/>
-    </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="4"/>
+      <c r="O87" s="4"/>
+      <c r="P87" s="4"/>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
       <c r="C88" s="4"/>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="4"/>
+      <c r="O88" s="4"/>
+      <c r="P88" s="4"/>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
       <c r="C89" s="4"/>
-    </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="4"/>
+      <c r="O89" s="4"/>
+      <c r="P89" s="4"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
       <c r="C90" s="4"/>
-    </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="4"/>
+      <c r="O90" s="4"/>
+      <c r="P90" s="4"/>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
       <c r="C91" s="4"/>
-    </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="4"/>
+      <c r="O91" s="4"/>
+      <c r="P91" s="4"/>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C92" s="4"/>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C93" s="4"/>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C94" s="4"/>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C95" s="4"/>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C96" s="4"/>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" s="4"/>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" s="4"/>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" s="4"/>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" s="4"/>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C101" s="4"/>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C102" s="4"/>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C103" s="4"/>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C104" s="4"/>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C105" s="4"/>
     </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C106" s="4"/>
     </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C107" s="4"/>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C108" s="4"/>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C109" s="4"/>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C110" s="4"/>
     </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C111" s="4"/>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C112" s="4"/>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C113" s="4"/>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C114" s="4"/>
     </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C115" s="4"/>
     </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C116" s="4"/>
     </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C117" s="4"/>
     </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C118" s="4"/>
     </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C119" s="4"/>
     </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C120" s="4"/>
     </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C121" s="4"/>
     </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C122" s="4"/>
     </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C123" s="4"/>
     </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C124" s="4"/>
     </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C125" s="4"/>
     </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C126" s="4"/>
     </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C127" s="4"/>
     </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C128" s="4"/>
     </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C129" s="4"/>
     </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C130" s="4"/>
     </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C131" s="4"/>
     </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C132" s="4"/>
     </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C133" s="4"/>
     </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C134" s="4"/>
     </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C135" s="4"/>
     </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C136" s="4"/>
     </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C137" s="4"/>
     </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C138" s="4"/>
     </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C139" s="4"/>
     </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C140" s="4"/>
     </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C141" s="4"/>
     </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C142" s="4"/>
     </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C143" s="4"/>
     </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C144" s="4"/>
     </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C145" s="4"/>
     </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C146" s="4"/>
     </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C147" s="4"/>
     </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C148" s="4"/>
     </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C149" s="4"/>
     </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C150" s="4"/>
     </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C151" s="4"/>
     </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C152" s="4"/>
     </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C153" s="4"/>
     </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C154" s="4"/>
     </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C155" s="4"/>
     </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C156" s="4"/>
     </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C157" s="4"/>
     </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C158" s="4"/>
     </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C159" s="4"/>
     </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C160" s="4"/>
     </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C161" s="4"/>
     </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C162" s="4"/>
     </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C163" s="4"/>
     </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C164" s="4"/>
     </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C165" s="4"/>
     </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C166" s="4"/>
     </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C167" s="4"/>
     </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C168" s="4"/>
     </row>
-    <row r="169" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C169" s="4"/>
     </row>
-    <row r="170" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C170" s="4"/>
     </row>
-    <row r="171" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C171" s="4"/>
     </row>
-    <row r="172" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C172" s="4"/>
     </row>
-    <row r="173" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C173" s="4"/>
     </row>
-    <row r="174" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C174" s="4"/>
     </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C175" s="4"/>
     </row>
-    <row r="176" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C176" s="4"/>
     </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C177" s="4"/>
     </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C178" s="4"/>
     </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C179" s="4"/>
     </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C180" s="4"/>
     </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C181" s="4"/>
     </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C182" s="4"/>
     </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C183" s="4"/>
     </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C184" s="4"/>
     </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C185" s="4"/>
     </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C186" s="4"/>
     </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C187" s="4"/>
     </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C188" s="4"/>
     </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C189" s="4"/>
     </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C190" s="4"/>
     </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C191" s="4"/>
     </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C192" s="4"/>
     </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C193" s="4"/>
     </row>
-    <row r="194" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C194" s="4"/>
     </row>
-    <row r="195" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C195" s="4"/>
     </row>
-    <row r="196" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C196" s="4"/>
     </row>
-    <row r="197" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C197" s="4"/>
     </row>
-    <row r="198" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C198" s="4"/>
     </row>
-    <row r="199" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C199" s="4"/>
     </row>
-    <row r="200" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C200" s="4"/>
     </row>
-    <row r="201" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C201" s="4"/>
     </row>
-    <row r="202" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C202" s="4"/>
     </row>
-    <row r="203" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C203" s="4"/>
     </row>
-    <row r="204" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C204" s="4"/>
     </row>
-    <row r="205" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C205" s="4"/>
     </row>
-    <row r="206" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C206" s="4"/>
     </row>
-    <row r="207" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C207" s="4"/>
     </row>
-    <row r="208" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C208" s="4"/>
     </row>
-    <row r="209" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C209" s="4"/>
     </row>
-    <row r="210" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C210" s="4"/>
     </row>
-    <row r="211" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C211" s="4"/>
     </row>
-    <row r="212" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C212" s="4"/>
     </row>
-    <row r="213" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C213" s="4"/>
     </row>
-    <row r="214" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C214" s="4"/>
     </row>
-    <row r="215" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C215" s="4"/>
     </row>
-    <row r="216" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C216" s="4"/>
     </row>
-    <row r="217" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C217" s="4"/>
     </row>
-    <row r="218" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C218" s="4"/>
     </row>
-    <row r="219" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C219" s="4"/>
     </row>
-    <row r="220" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C220" s="4"/>
     </row>
-    <row r="221" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C221" s="4"/>
     </row>
-    <row r="222" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C222" s="4"/>
     </row>
-    <row r="223" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C223" s="4"/>
     </row>
-    <row r="224" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C224" s="4"/>
     </row>
-    <row r="225" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C225" s="4"/>
     </row>
-    <row r="226" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C226" s="4"/>
     </row>
-    <row r="227" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C227" s="4"/>
     </row>
-    <row r="228" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C228" s="4"/>
     </row>
-    <row r="229" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C229" s="4"/>
     </row>
-    <row r="230" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C230" s="4"/>
     </row>
-    <row r="231" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C231" s="4"/>
     </row>
-    <row r="232" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C232" s="4"/>
     </row>
-    <row r="233" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C233" s="4"/>
     </row>
-    <row r="234" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C234" s="4"/>
     </row>
-    <row r="235" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C235" s="4"/>
     </row>
-    <row r="236" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C236" s="4"/>
     </row>
-    <row r="237" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C237" s="4"/>
     </row>
-    <row r="238" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C238" s="4"/>
     </row>
-    <row r="239" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C239" s="4"/>
     </row>
-    <row r="240" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C240" s="4"/>
     </row>
-    <row r="241" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C241" s="4"/>
     </row>
-    <row r="242" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C242" s="4"/>
     </row>
-    <row r="243" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C243" s="4"/>
     </row>
-    <row r="244" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C244" s="4"/>
     </row>
-    <row r="245" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C245" s="4"/>
     </row>
-    <row r="246" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C246" s="4"/>
     </row>
-    <row r="247" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C247" s="4"/>
     </row>
-    <row r="248" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C248" s="4"/>
     </row>
-    <row r="249" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C249" s="4"/>
     </row>
-    <row r="250" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C250" s="4"/>
     </row>
-    <row r="251" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C251" s="4"/>
     </row>
-    <row r="252" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C252" s="4"/>
     </row>
-    <row r="253" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C253" s="4"/>
     </row>
-    <row r="254" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C254" s="4"/>
     </row>
-    <row r="255" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C255" s="4"/>
     </row>
-    <row r="256" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C256" s="4"/>
     </row>
-    <row r="257" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="257" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C257" s="4"/>
     </row>
-    <row r="258" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C258" s="4"/>
     </row>
-    <row r="259" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="259" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C259" s="4"/>
     </row>
-    <row r="260" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="260" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C260" s="4"/>
     </row>
-    <row r="261" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="261" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C261" s="4"/>
     </row>
-    <row r="262" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="262" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C262" s="4"/>
     </row>
-    <row r="263" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="263" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C263" s="4"/>
     </row>
-    <row r="264" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="264" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C264" s="4"/>
     </row>
-    <row r="265" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="265" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C265" s="4"/>
     </row>
-    <row r="266" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="266" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C266" s="4"/>
     </row>
-    <row r="267" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C267" s="4"/>
     </row>
-    <row r="268" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="268" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C268" s="4"/>
     </row>
-    <row r="269" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="269" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C269" s="4"/>
     </row>
-    <row r="270" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="270" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C270" s="4"/>
     </row>
-    <row r="271" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="271" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C271" s="4"/>
     </row>
-    <row r="272" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="272" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C272" s="4"/>
     </row>
-    <row r="273" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="273" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C273" s="4"/>
     </row>
-    <row r="274" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="274" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C274" s="4"/>
     </row>
-    <row r="275" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="275" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C275" s="4"/>
     </row>
-    <row r="276" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="276" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C276" s="4"/>
     </row>
-    <row r="277" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="277" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C277" s="4"/>
     </row>
-    <row r="278" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="278" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C278" s="4"/>
     </row>
-    <row r="279" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="279" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C279" s="4"/>
     </row>
-    <row r="280" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="280" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C280" s="4"/>
     </row>
-    <row r="281" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="281" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C281" s="4"/>
     </row>
-    <row r="282" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="282" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C282" s="4"/>
     </row>
-    <row r="283" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="283" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C283" s="4"/>
     </row>
-    <row r="284" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="284" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C284" s="4"/>
     </row>
-    <row r="285" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="285" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C285" s="4"/>
     </row>
-    <row r="286" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="286" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C286" s="4"/>
     </row>
-    <row r="287" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="287" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C287" s="4"/>
     </row>
-    <row r="288" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="288" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C288" s="4"/>
     </row>
-    <row r="289" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="289" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C289" s="4"/>
     </row>
-    <row r="290" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="290" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C290" s="4"/>
     </row>
-    <row r="291" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="291" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C291" s="4"/>
     </row>
-    <row r="292" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="292" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C292" s="4"/>
     </row>
-    <row r="293" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="293" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C293" s="4"/>
     </row>
-    <row r="294" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="294" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C294" s="4"/>
     </row>
-    <row r="295" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="295" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C295" s="4"/>
     </row>
-    <row r="296" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="296" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C296" s="4"/>
     </row>
-    <row r="297" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="297" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C297" s="4"/>
     </row>
-    <row r="298" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="298" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C298" s="4"/>
     </row>
-    <row r="299" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="299" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C299" s="4"/>
     </row>
-    <row r="300" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="300" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C300" s="4"/>
     </row>
-    <row r="301" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="301" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C301" s="4"/>
     </row>
-    <row r="302" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="302" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C302" s="4"/>
     </row>
-    <row r="303" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="303" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C303" s="4"/>
     </row>
-    <row r="304" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="304" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C304" s="4"/>
     </row>
-    <row r="305" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="305" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C305" s="4"/>
     </row>
-    <row r="306" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="306" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C306" s="4"/>
     </row>
-    <row r="307" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="307" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C307" s="4"/>
     </row>
-    <row r="308" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="308" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C308" s="4"/>
     </row>
-    <row r="309" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="309" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C309" s="4"/>
     </row>
-    <row r="310" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="310" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C310" s="4"/>
     </row>
-    <row r="311" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="311" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C311" s="4"/>
     </row>
-    <row r="312" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="312" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C312" s="4"/>
     </row>
-    <row r="313" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="313" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C313" s="4"/>
     </row>
-    <row r="314" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="314" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C314" s="4"/>
     </row>
-    <row r="315" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="315" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C315" s="4"/>
     </row>
-    <row r="316" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="316" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C316" s="4"/>
     </row>
-    <row r="317" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="317" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C317" s="4"/>
     </row>
-    <row r="318" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="318" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C318" s="4"/>
     </row>
-    <row r="319" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="319" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C319" s="4"/>
     </row>
-    <row r="320" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="320" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C320" s="4"/>
     </row>
-    <row r="321" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="321" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C321" s="4"/>
     </row>
-    <row r="322" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="322" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C322" s="4"/>
     </row>
-    <row r="323" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="323" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C323" s="4"/>
     </row>
-    <row r="324" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="324" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C324" s="4"/>
     </row>
-    <row r="325" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="325" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C325" s="4"/>
     </row>
-    <row r="326" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="326" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C326" s="4"/>
     </row>
-    <row r="327" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="327" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C327" s="4"/>
     </row>
-    <row r="328" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="328" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C328" s="4"/>
     </row>
-    <row r="329" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="329" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C329" s="4"/>
     </row>
-    <row r="330" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="330" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C330" s="4"/>
     </row>
-    <row r="331" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="331" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C331" s="4"/>
     </row>
-    <row r="332" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="332" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C332" s="4"/>
     </row>
-    <row r="333" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="333" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C333" s="4"/>
     </row>
-    <row r="334" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="334" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C334" s="4"/>
     </row>
-    <row r="335" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="335" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C335" s="4"/>
     </row>
-    <row r="336" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="336" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C336" s="4"/>
     </row>
-    <row r="337" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="337" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C337" s="4"/>
     </row>
-    <row r="338" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="338" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C338" s="4"/>
     </row>
-    <row r="339" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="339" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C339" s="4"/>
     </row>
-    <row r="340" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="340" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C340" s="4"/>
     </row>
-    <row r="341" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="341" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C341" s="4"/>
     </row>
-    <row r="342" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="342" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C342" s="4"/>
     </row>
-    <row r="343" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="343" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C343" s="4"/>
     </row>
-    <row r="344" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="344" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C344" s="4"/>
     </row>
-    <row r="345" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="345" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C345" s="4"/>
     </row>
-    <row r="346" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="346" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C346" s="4"/>
     </row>
-    <row r="347" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="347" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C347" s="4"/>
     </row>
-    <row r="348" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="348" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C348" s="4"/>
     </row>
-    <row r="349" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="349" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C349" s="4"/>
     </row>
-    <row r="350" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="350" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C350" s="4"/>
     </row>
-    <row r="351" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="351" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C351" s="4"/>
     </row>
-    <row r="352" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="352" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C352" s="4"/>
     </row>
-    <row r="353" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="353" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C353" s="4"/>
     </row>
-    <row r="354" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="354" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C354" s="4"/>
     </row>
-    <row r="355" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="355" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C355" s="4"/>
     </row>
-    <row r="356" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="356" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C356" s="4"/>
     </row>
-    <row r="357" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="357" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C357" s="4"/>
     </row>
-    <row r="358" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="358" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C358" s="4"/>
     </row>
-    <row r="359" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="359" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C359" s="4"/>
     </row>
-    <row r="360" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="360" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C360" s="4"/>
     </row>
-    <row r="361" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="361" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C361" s="4"/>
     </row>
-    <row r="362" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="362" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C362" s="4"/>
     </row>
-    <row r="363" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="363" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C363" s="4"/>
     </row>
-    <row r="364" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="364" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C364" s="4"/>
     </row>
-    <row r="365" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="365" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C365" s="4"/>
     </row>
-    <row r="366" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="366" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C366" s="4"/>
     </row>
-    <row r="367" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="367" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C367" s="4"/>
     </row>
-    <row r="368" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="368" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C368" s="4"/>
     </row>
-    <row r="369" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="369" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C369" s="4"/>
     </row>
-    <row r="370" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="370" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C370" s="4"/>
     </row>
-    <row r="371" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="371" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C371" s="4"/>
     </row>
-    <row r="372" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="372" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C372" s="4"/>
     </row>
-    <row r="373" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="373" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C373" s="4"/>
     </row>
-    <row r="374" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="374" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C374" s="4"/>
     </row>
-    <row r="375" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="375" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C375" s="4"/>
     </row>
-    <row r="376" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="376" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C376" s="4"/>
     </row>
-    <row r="377" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="377" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C377" s="4"/>
     </row>
-    <row r="378" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="378" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C378" s="4"/>
     </row>
-    <row r="379" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="379" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C379" s="4"/>
     </row>
-    <row r="380" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="380" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C380" s="4"/>
     </row>
-    <row r="381" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="381" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C381" s="4"/>
     </row>
-    <row r="382" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="382" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C382" s="4"/>
     </row>
-    <row r="383" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="383" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C383" s="4"/>
     </row>
-    <row r="384" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="384" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C384" s="4"/>
     </row>
-    <row r="385" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="385" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C385" s="4"/>
     </row>
-    <row r="386" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="386" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C386" s="4"/>
     </row>
-    <row r="387" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="387" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C387" s="4"/>
     </row>
-    <row r="388" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="388" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C388" s="4"/>
     </row>
-    <row r="389" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="389" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C389" s="4"/>
     </row>
-    <row r="390" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="390" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C390" s="4"/>
     </row>
-    <row r="391" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="391" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C391" s="4"/>
     </row>
-    <row r="392" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="392" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C392" s="4"/>
     </row>
-    <row r="393" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="393" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C393" s="4"/>
     </row>
-    <row r="394" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="394" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C394" s="4"/>
     </row>
-    <row r="395" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="395" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C395" s="4"/>
     </row>
-    <row r="396" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="396" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C396" s="4"/>
     </row>
-    <row r="397" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="397" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C397" s="4"/>
     </row>
-    <row r="398" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="398" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C398" s="4"/>
     </row>
-    <row r="399" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="399" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C399" s="4"/>
     </row>
-    <row r="400" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="400" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C400" s="4"/>
     </row>
-    <row r="401" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="401" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C401" s="4"/>
     </row>
-    <row r="402" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="402" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C402" s="4"/>
     </row>
-    <row r="403" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="403" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C403" s="4"/>
     </row>
-    <row r="404" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="404" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C404" s="4"/>
     </row>
-    <row r="405" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="405" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C405" s="4"/>
     </row>
-    <row r="406" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="406" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C406" s="4"/>
     </row>
-    <row r="407" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="407" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C407" s="4"/>
     </row>
-    <row r="408" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="408" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C408" s="4"/>
     </row>
-    <row r="409" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="409" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C409" s="4"/>
     </row>
-    <row r="410" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="410" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C410" s="4"/>
     </row>
-    <row r="411" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="411" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C411" s="4"/>
     </row>
-    <row r="412" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="412" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C412" s="4"/>
     </row>
-    <row r="413" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="413" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C413" s="4"/>
     </row>
-    <row r="414" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="414" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C414" s="4"/>
     </row>
-    <row r="415" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="415" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C415" s="4"/>
     </row>
-    <row r="416" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="416" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C416" s="4"/>
     </row>
-    <row r="417" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="417" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C417" s="4"/>
     </row>
-    <row r="418" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="418" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C418" s="4"/>
     </row>
-    <row r="419" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="419" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C419" s="4"/>
     </row>
-    <row r="420" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="420" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C420" s="4"/>
     </row>
-    <row r="421" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="421" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C421" s="4"/>
     </row>
-    <row r="422" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="422" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C422" s="4"/>
     </row>
-    <row r="423" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="423" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C423" s="4"/>
     </row>
-    <row r="424" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="424" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C424" s="4"/>
     </row>
-    <row r="425" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="425" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C425" s="4"/>
     </row>
-    <row r="426" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="426" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C426" s="4"/>
     </row>
-    <row r="427" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="427" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C427" s="4"/>
     </row>
-    <row r="428" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="428" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C428" s="4"/>
     </row>
-    <row r="429" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="429" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C429" s="4"/>
     </row>
-    <row r="430" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="430" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C430" s="4"/>
     </row>
-    <row r="431" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="431" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C431" s="4"/>
     </row>
-    <row r="432" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="432" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C432" s="4"/>
     </row>
-    <row r="433" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="433" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C433" s="4"/>
     </row>
-    <row r="434" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="434" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C434" s="4"/>
     </row>
-    <row r="435" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="435" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C435" s="4"/>
     </row>
-    <row r="436" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="436" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C436" s="4"/>
     </row>
-    <row r="437" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="437" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C437" s="4"/>
     </row>
-    <row r="438" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="438" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C438" s="4"/>
     </row>
-    <row r="439" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="439" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C439" s="4"/>
     </row>
-    <row r="440" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="440" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C440" s="4"/>
     </row>
-    <row r="441" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="441" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C441" s="4"/>
     </row>
-    <row r="442" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="442" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C442" s="4"/>
     </row>
-    <row r="443" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="443" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C443" s="4"/>
     </row>
-    <row r="444" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="444" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C444" s="4"/>
     </row>
-    <row r="445" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="445" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C445" s="4"/>
     </row>
-    <row r="446" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="446" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C446" s="4"/>
     </row>
-    <row r="447" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="447" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C447" s="4"/>
     </row>
-    <row r="448" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="448" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C448" s="4"/>
     </row>
-    <row r="449" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="449" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C449" s="4"/>
     </row>
-    <row r="450" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="450" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C450" s="4"/>
     </row>
-    <row r="451" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="451" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C451" s="4"/>
     </row>
-    <row r="452" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="452" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C452" s="4"/>
     </row>
-    <row r="453" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="453" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C453" s="4"/>
     </row>
-    <row r="454" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="454" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C454" s="4"/>
     </row>
-    <row r="455" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="455" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C455" s="4"/>
     </row>
-    <row r="456" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="456" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C456" s="4"/>
     </row>
-    <row r="457" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="457" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C457" s="4"/>
     </row>
-    <row r="458" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="458" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C458" s="4"/>
     </row>
-    <row r="459" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="459" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C459" s="4"/>
     </row>
-    <row r="460" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="460" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C460" s="4"/>
     </row>
-    <row r="461" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="461" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C461" s="4"/>
     </row>
-    <row r="462" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="462" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C462" s="4"/>
     </row>
-    <row r="463" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="463" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C463" s="4"/>
     </row>
-    <row r="464" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="464" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C464" s="4"/>
     </row>
-    <row r="465" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="465" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C465" s="4"/>
     </row>
-    <row r="466" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="466" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C466" s="4"/>
     </row>
-    <row r="467" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="467" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C467" s="4"/>
     </row>
-    <row r="468" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="468" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C468" s="4"/>
     </row>
-    <row r="469" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="469" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C469" s="4"/>
     </row>
-    <row r="470" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="470" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C470" s="4"/>
     </row>
-    <row r="471" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="471" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C471" s="4"/>
     </row>
-    <row r="472" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="472" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C472" s="4"/>
     </row>
-    <row r="473" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="473" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C473" s="4"/>
     </row>
-    <row r="474" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="474" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C474" s="4"/>
     </row>
-    <row r="475" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="475" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C475" s="4"/>
     </row>
-    <row r="476" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="476" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C476" s="4"/>
     </row>
-    <row r="477" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="477" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C477" s="4"/>
     </row>
-    <row r="478" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="478" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C478" s="4"/>
     </row>
-    <row r="479" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="479" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C479" s="4"/>
     </row>
-    <row r="480" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="480" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C480" s="4"/>
     </row>
-    <row r="481" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="481" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C481" s="4"/>
     </row>
-    <row r="482" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="482" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C482" s="4"/>
     </row>
-    <row r="483" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="483" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C483" s="4"/>
     </row>
-    <row r="484" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="484" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C484" s="4"/>
     </row>
-    <row r="485" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="485" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C485" s="4"/>
     </row>
-    <row r="486" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="486" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C486" s="4"/>
     </row>
-    <row r="487" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="487" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C487" s="4"/>
     </row>
-    <row r="488" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="488" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C488" s="4"/>
     </row>
-    <row r="489" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="489" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C489" s="4"/>
     </row>
-    <row r="490" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="490" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C490" s="4"/>
     </row>
-    <row r="491" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="491" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C491" s="4"/>
     </row>
-    <row r="492" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="492" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C492" s="4"/>
     </row>
-    <row r="493" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="493" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C493" s="4"/>
     </row>
-    <row r="494" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="494" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C494" s="4"/>
     </row>
-    <row r="495" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="495" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C495" s="4"/>
     </row>
-    <row r="496" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="496" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C496" s="4"/>
     </row>
-    <row r="497" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="497" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C497" s="4"/>
     </row>
-    <row r="498" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="498" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C498" s="4"/>
     </row>
-    <row r="499" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="499" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C499" s="4"/>
     </row>
-    <row r="500" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="500" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C500" s="4"/>
     </row>
-    <row r="501" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="501" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C501" s="4"/>
     </row>
-    <row r="502" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="502" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C502" s="4"/>
     </row>
-    <row r="503" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="503" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C503" s="4"/>
     </row>
-    <row r="504" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="504" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C504" s="4"/>
     </row>
-    <row r="505" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="505" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C505" s="4"/>
     </row>
-    <row r="506" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="506" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C506" s="4"/>
     </row>
-    <row r="507" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="507" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C507" s="4"/>
     </row>
-    <row r="508" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="508" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C508" s="4"/>
     </row>
-    <row r="509" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="509" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C509" s="4"/>
     </row>
-    <row r="510" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="510" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C510" s="4"/>
     </row>
-    <row r="511" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="511" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C511" s="4"/>
     </row>
-    <row r="512" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="512" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C512" s="4"/>
     </row>
-    <row r="513" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="513" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C513" s="4"/>
     </row>
-    <row r="514" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="514" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C514" s="4"/>
     </row>
-    <row r="515" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="515" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C515" s="4"/>
     </row>
-    <row r="516" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="516" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C516" s="4"/>
     </row>
-    <row r="517" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="517" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C517" s="4"/>
     </row>
-    <row r="518" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="518" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C518" s="4"/>
     </row>
-    <row r="519" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="519" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C519" s="4"/>
     </row>
-    <row r="520" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="520" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C520" s="4"/>
     </row>
-    <row r="521" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="521" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C521" s="4"/>
     </row>
-    <row r="522" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="522" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C522" s="4"/>
     </row>
-    <row r="523" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="523" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C523" s="4"/>
     </row>
-    <row r="524" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="524" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C524" s="4"/>
     </row>
-    <row r="525" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="525" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C525" s="4"/>
     </row>
-    <row r="526" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="526" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C526" s="4"/>
     </row>
-    <row r="527" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="527" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C527" s="4"/>
     </row>
-    <row r="528" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="528" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C528" s="4"/>
     </row>
-    <row r="529" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="529" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C529" s="4"/>
     </row>
-    <row r="530" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="530" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C530" s="4"/>
     </row>
-    <row r="531" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="531" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C531" s="4"/>
     </row>
-    <row r="532" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="532" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C532" s="4"/>
     </row>
-    <row r="533" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="533" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C533" s="4"/>
     </row>
-    <row r="534" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="534" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C534" s="4"/>
     </row>
-    <row r="535" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="535" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C535" s="4"/>
     </row>
-    <row r="536" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="536" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C536" s="4"/>
     </row>
-    <row r="537" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="537" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C537" s="4"/>
     </row>
-    <row r="538" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="538" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C538" s="4"/>
     </row>
-    <row r="539" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="539" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C539" s="4"/>
     </row>
-    <row r="540" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="540" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C540" s="4"/>
     </row>
-    <row r="541" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="541" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C541" s="4"/>
     </row>
-    <row r="542" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="542" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C542" s="4"/>
     </row>
-    <row r="543" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="543" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C543" s="4"/>
     </row>
-    <row r="544" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="544" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C544" s="4"/>
     </row>
-    <row r="545" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="545" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C545" s="4"/>
     </row>
-    <row r="546" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="546" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C546" s="4"/>
     </row>
-    <row r="547" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="547" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C547" s="4"/>
     </row>
-    <row r="548" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="548" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C548" s="4"/>
     </row>
-    <row r="549" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="549" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C549" s="4"/>
     </row>
-    <row r="550" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="550" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C550" s="4"/>
     </row>
-    <row r="551" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="551" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C551" s="4"/>
     </row>
-    <row r="552" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="552" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C552" s="4"/>
     </row>
-    <row r="553" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="553" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C553" s="4"/>
     </row>
-    <row r="554" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="554" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C554" s="4"/>
     </row>
-    <row r="555" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="555" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C555" s="4"/>
     </row>
-    <row r="556" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="556" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C556" s="4"/>
     </row>
-    <row r="557" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="557" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C557" s="4"/>
     </row>
-    <row r="558" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="558" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C558" s="4"/>
     </row>
-    <row r="559" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="559" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C559" s="4"/>
     </row>
-    <row r="560" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="560" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C560" s="4"/>
     </row>
-    <row r="561" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="561" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C561" s="4"/>
     </row>
-    <row r="562" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="562" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C562" s="4"/>
     </row>
-    <row r="563" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="563" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C563" s="4"/>
     </row>
-    <row r="564" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="564" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C564" s="4"/>
     </row>
-    <row r="565" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="565" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C565" s="4"/>
     </row>
-    <row r="566" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="566" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C566" s="4"/>
     </row>
-    <row r="567" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="567" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C567" s="4"/>
     </row>
-    <row r="568" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="568" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C568" s="4"/>
     </row>
-    <row r="569" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="569" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C569" s="4"/>
     </row>
-    <row r="570" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="570" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C570" s="4"/>
     </row>
-    <row r="571" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="571" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C571" s="4"/>
     </row>
-    <row r="572" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="572" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C572" s="4"/>
     </row>
-    <row r="573" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="573" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C573" s="4"/>
     </row>
-    <row r="574" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="574" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C574" s="4"/>
     </row>
-    <row r="575" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="575" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C575" s="4"/>
     </row>
-    <row r="576" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="576" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C576" s="4"/>
     </row>
-    <row r="577" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="577" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C577" s="4"/>
     </row>
-    <row r="578" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="578" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C578" s="4"/>
     </row>
-    <row r="579" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="579" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C579" s="4"/>
     </row>
-    <row r="580" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="580" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C580" s="4"/>
     </row>
-    <row r="581" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="581" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C581" s="4"/>
     </row>
-    <row r="582" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="582" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C582" s="4"/>
     </row>
-    <row r="583" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="583" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C583" s="4"/>
     </row>
-    <row r="584" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="584" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C584" s="4"/>
     </row>
-    <row r="585" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="585" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C585" s="4"/>
     </row>
-    <row r="586" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="586" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C586" s="4"/>
     </row>
-    <row r="587" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="587" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C587" s="4"/>
     </row>
-    <row r="588" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="588" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C588" s="4"/>
     </row>
-    <row r="589" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="589" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C589" s="4"/>
     </row>
-    <row r="590" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="590" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C590" s="4"/>
     </row>
-    <row r="591" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="591" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C591" s="4"/>
     </row>
-    <row r="592" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="592" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C592" s="4"/>
     </row>
-    <row r="593" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="593" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C593" s="4"/>
     </row>
-    <row r="594" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="594" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C594" s="4"/>
     </row>
-    <row r="595" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="595" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C595" s="4"/>
     </row>
-    <row r="596" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="596" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C596" s="4"/>
     </row>
-    <row r="597" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="597" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C597" s="4"/>
     </row>
-    <row r="598" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="598" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C598" s="4"/>
     </row>
-    <row r="599" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="599" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C599" s="4"/>
     </row>
-    <row r="600" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="600" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C600" s="4"/>
     </row>
-    <row r="601" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="601" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C601" s="4"/>
     </row>
-    <row r="602" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="602" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C602" s="4"/>
     </row>
-    <row r="603" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="603" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C603" s="4"/>
     </row>
-    <row r="604" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="604" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C604" s="4"/>
     </row>
-    <row r="605" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="605" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C605" s="4"/>
     </row>
-    <row r="606" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="606" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C606" s="4"/>
     </row>
-    <row r="607" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="607" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C607" s="4"/>
     </row>
-    <row r="608" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="608" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C608" s="4"/>
     </row>
-    <row r="609" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="609" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C609" s="4"/>
     </row>
-    <row r="610" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="610" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C610" s="4"/>
     </row>
-    <row r="611" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="611" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C611" s="4"/>
     </row>
-    <row r="612" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="612" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C612" s="4"/>
     </row>
-    <row r="613" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="613" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C613" s="4"/>
     </row>
-    <row r="614" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="614" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C614" s="4"/>
     </row>
-    <row r="615" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="615" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C615" s="4"/>
     </row>
-    <row r="616" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="616" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C616" s="4"/>
     </row>
-    <row r="617" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="617" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C617" s="4"/>
     </row>
-    <row r="618" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="618" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C618" s="4"/>
     </row>
-    <row r="619" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="619" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C619" s="4"/>
     </row>
-    <row r="620" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="620" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C620" s="4"/>
     </row>
-    <row r="621" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="621" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C621" s="4"/>
     </row>
-    <row r="622" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="622" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C622" s="4"/>
     </row>
-    <row r="623" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="623" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C623" s="4"/>
     </row>
-    <row r="624" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="624" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C624" s="4"/>
     </row>
-    <row r="625" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="625" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C625" s="4"/>
     </row>
-    <row r="626" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="626" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C626" s="4"/>
     </row>
-    <row r="627" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="627" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C627" s="4"/>
     </row>
-    <row r="628" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="628" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C628" s="4"/>
     </row>
-    <row r="629" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="629" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C629" s="4"/>
     </row>
-    <row r="630" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="630" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C630" s="4"/>
     </row>
-    <row r="631" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="631" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C631" s="4"/>
     </row>
-    <row r="632" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="632" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C632" s="4"/>
     </row>
-    <row r="633" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="633" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C633" s="4"/>
     </row>
-    <row r="634" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="634" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C634" s="4"/>
     </row>
-    <row r="635" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="635" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C635" s="4"/>
     </row>
-    <row r="636" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="636" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C636" s="4"/>
     </row>
-    <row r="637" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="637" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C637" s="4"/>
     </row>
-    <row r="638" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="638" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C638" s="4"/>
     </row>
-    <row r="639" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="639" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C639" s="4"/>
     </row>
-    <row r="640" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="640" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C640" s="4"/>
     </row>
-    <row r="641" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="641" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C641" s="4"/>
     </row>
-    <row r="642" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="642" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C642" s="4"/>
     </row>
-    <row r="643" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="643" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C643" s="4"/>
     </row>
-    <row r="644" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="644" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C644" s="4"/>
     </row>
-    <row r="645" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="645" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C645" s="4"/>
     </row>
-    <row r="646" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="646" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C646" s="4"/>
     </row>
-    <row r="647" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="647" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C647" s="4"/>
     </row>
-    <row r="648" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="648" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C648" s="4"/>
     </row>
-    <row r="649" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="649" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C649" s="4"/>
     </row>
-    <row r="650" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="650" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C650" s="4"/>
     </row>
-    <row r="651" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="651" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C651" s="4"/>
     </row>
-    <row r="652" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="652" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C652" s="4"/>
     </row>
-    <row r="653" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="653" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C653" s="4"/>
     </row>
-    <row r="654" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="654" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C654" s="4"/>
     </row>
-    <row r="655" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="655" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C655" s="4"/>
     </row>
-    <row r="656" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="656" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C656" s="4"/>
     </row>
-    <row r="657" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="657" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C657" s="4"/>
     </row>
-    <row r="658" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="658" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C658" s="4"/>
     </row>
-    <row r="659" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="659" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C659" s="4"/>
     </row>
-    <row r="660" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="660" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C660" s="4"/>
     </row>
-    <row r="661" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="661" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C661" s="4"/>
     </row>
-    <row r="662" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="662" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C662" s="4"/>
     </row>
-    <row r="663" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="663" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C663" s="4"/>
     </row>
-    <row r="664" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="664" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C664" s="4"/>
     </row>
-    <row r="665" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="665" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C665" s="4"/>
     </row>
-    <row r="666" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="666" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C666" s="4"/>
     </row>
-    <row r="667" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="667" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C667" s="4"/>
     </row>
-    <row r="668" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="668" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C668" s="4"/>
     </row>
-    <row r="669" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="669" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C669" s="4"/>
     </row>
-    <row r="670" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="670" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C670" s="4"/>
     </row>
-    <row r="671" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="671" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C671" s="4"/>
     </row>
-    <row r="672" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="672" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C672" s="4"/>
     </row>
-    <row r="673" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="673" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C673" s="4"/>
     </row>
-    <row r="674" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="674" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C674" s="4"/>
     </row>
-    <row r="675" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="675" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C675" s="4"/>
     </row>
-    <row r="676" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="676" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C676" s="4"/>
     </row>
-    <row r="677" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="677" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C677" s="4"/>
     </row>
-    <row r="678" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="678" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C678" s="4"/>
     </row>
-    <row r="679" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="679" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C679" s="4"/>
     </row>
-    <row r="680" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="680" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C680" s="4"/>
     </row>
-    <row r="681" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="681" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C681" s="4"/>
     </row>
-    <row r="682" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="682" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C682" s="4"/>
     </row>
-    <row r="683" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="683" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C683" s="4"/>
     </row>
-    <row r="684" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="684" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C684" s="4"/>
     </row>
-    <row r="685" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="685" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C685" s="4"/>
     </row>
-    <row r="686" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="686" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C686" s="4"/>
     </row>
-    <row r="687" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="687" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C687" s="4"/>
     </row>
-    <row r="688" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="688" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C688" s="4"/>
     </row>
-    <row r="689" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="689" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C689" s="4"/>
     </row>
-    <row r="690" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="690" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C690" s="4"/>
     </row>
-    <row r="691" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="691" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C691" s="4"/>
     </row>
-    <row r="692" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="692" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C692" s="4"/>
     </row>
-    <row r="693" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="693" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C693" s="4"/>
     </row>
-    <row r="694" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="694" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C694" s="4"/>
     </row>
-    <row r="695" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="695" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C695" s="4"/>
     </row>
-    <row r="696" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="696" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C696" s="4"/>
     </row>
-    <row r="697" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="697" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C697" s="4"/>
     </row>
-    <row r="698" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="698" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C698" s="4"/>
     </row>
-    <row r="699" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="699" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C699" s="4"/>
     </row>
-    <row r="700" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="700" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C700" s="4"/>
     </row>
-    <row r="701" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="701" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C701" s="4"/>
     </row>
-    <row r="702" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="702" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C702" s="4"/>
     </row>
-    <row r="703" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="703" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C703" s="4"/>
     </row>
-    <row r="704" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="704" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C704" s="4"/>
     </row>
-    <row r="705" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="705" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C705" s="4"/>
     </row>
-    <row r="706" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="706" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C706" s="4"/>
     </row>
-    <row r="707" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="707" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C707" s="4"/>
     </row>
-    <row r="708" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="708" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C708" s="4"/>
     </row>
-    <row r="709" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="709" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C709" s="4"/>
     </row>
-    <row r="710" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="710" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C710" s="4"/>
     </row>
-    <row r="711" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="711" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C711" s="4"/>
     </row>
-    <row r="712" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="712" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C712" s="4"/>
     </row>
-    <row r="713" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="713" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C713" s="4"/>
     </row>
-    <row r="714" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="714" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C714" s="4"/>
     </row>
-    <row r="715" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="715" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C715" s="4"/>
     </row>
-    <row r="716" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="716" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C716" s="4"/>
     </row>
-    <row r="717" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="717" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C717" s="4"/>
     </row>
-    <row r="718" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="718" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C718" s="4"/>
     </row>
-    <row r="719" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="719" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C719" s="4"/>
     </row>
-    <row r="720" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="720" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C720" s="4"/>
     </row>
-    <row r="721" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="721" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C721" s="4"/>
     </row>
-    <row r="722" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="722" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C722" s="4"/>
     </row>
-    <row r="723" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="723" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C723" s="4"/>
     </row>
-    <row r="724" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="724" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C724" s="4"/>
     </row>
-    <row r="725" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="725" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C725" s="4"/>
     </row>
-    <row r="726" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="726" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C726" s="4"/>
     </row>
-    <row r="727" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="727" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C727" s="4"/>
     </row>
-    <row r="728" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="728" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C728" s="4"/>
     </row>
-    <row r="729" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="729" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C729" s="4"/>
     </row>
-    <row r="730" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="730" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C730" s="4"/>
     </row>
-    <row r="731" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="731" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C731" s="4"/>
     </row>
-    <row r="732" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="732" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C732" s="4"/>
     </row>
-    <row r="733" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="733" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C733" s="4"/>
     </row>
-    <row r="734" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="734" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C734" s="4"/>
     </row>
-    <row r="735" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="735" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C735" s="4"/>
     </row>
-    <row r="736" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="736" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C736" s="4"/>
     </row>
-    <row r="737" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="737" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C737" s="4"/>
     </row>
-    <row r="738" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="738" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C738" s="4"/>
     </row>
-    <row r="739" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="739" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C739" s="4"/>
     </row>
-    <row r="740" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="740" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C740" s="4"/>
     </row>
-    <row r="741" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="741" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C741" s="4"/>
     </row>
-    <row r="742" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="742" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C742" s="4"/>
     </row>
-    <row r="743" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="743" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C743" s="4"/>
     </row>
-    <row r="744" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="744" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C744" s="4"/>
     </row>
-    <row r="745" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="745" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C745" s="4"/>
     </row>
-    <row r="746" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="746" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C746" s="4"/>
     </row>
-    <row r="747" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="747" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C747" s="4"/>
     </row>
-    <row r="748" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="748" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C748" s="4"/>
     </row>
-    <row r="749" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="749" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C749" s="4"/>
     </row>
-    <row r="750" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="750" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C750" s="4"/>
     </row>
-    <row r="751" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="751" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C751" s="4"/>
     </row>
-    <row r="752" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="752" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C752" s="4"/>
     </row>
-    <row r="753" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="753" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C753" s="4"/>
     </row>
-    <row r="754" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="754" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C754" s="4"/>
     </row>
-    <row r="755" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="755" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C755" s="4"/>
     </row>
-    <row r="756" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="756" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C756" s="4"/>
     </row>
-    <row r="757" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="757" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C757" s="4"/>
     </row>
-    <row r="758" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="758" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C758" s="4"/>
     </row>
-    <row r="759" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="759" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C759" s="4"/>
     </row>
-    <row r="760" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="760" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C760" s="4"/>
     </row>
-    <row r="761" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="761" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C761" s="4"/>
     </row>
-    <row r="762" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="762" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C762" s="4"/>
     </row>
-    <row r="763" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="763" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C763" s="4"/>
     </row>
-    <row r="764" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="764" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C764" s="4"/>
     </row>
-    <row r="765" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="765" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C765" s="4"/>
     </row>
-    <row r="766" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="766" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C766" s="4"/>
     </row>
-    <row r="767" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="767" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C767" s="4"/>
     </row>
-    <row r="768" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="768" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C768" s="4"/>
     </row>
-    <row r="769" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="769" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C769" s="4"/>
     </row>
-    <row r="770" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="770" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C770" s="4"/>
     </row>
-    <row r="771" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="771" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C771" s="4"/>
     </row>
-    <row r="772" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="772" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C772" s="4"/>
     </row>
-    <row r="773" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="773" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C773" s="4"/>
     </row>
-    <row r="774" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="774" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C774" s="4"/>
     </row>
-    <row r="775" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="775" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C775" s="4"/>
     </row>
-    <row r="776" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="776" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C776" s="4"/>
     </row>
-    <row r="777" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="777" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C777" s="4"/>
     </row>
-    <row r="778" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="778" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C778" s="4"/>
     </row>
-    <row r="779" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="779" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C779" s="4"/>
     </row>
-    <row r="780" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="780" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C780" s="4"/>
     </row>
-    <row r="781" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="781" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C781" s="4"/>
     </row>
-    <row r="782" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="782" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C782" s="4"/>
     </row>
-    <row r="783" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="783" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C783" s="4"/>
     </row>
-    <row r="784" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="784" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C784" s="4"/>
     </row>
-    <row r="785" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="785" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C785" s="4"/>
     </row>
-    <row r="786" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="786" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C786" s="4"/>
     </row>
-    <row r="787" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="787" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C787" s="4"/>
     </row>
-    <row r="788" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="788" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C788" s="4"/>
     </row>
-    <row r="789" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="789" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C789" s="4"/>
     </row>
-    <row r="790" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="790" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C790" s="4"/>
     </row>
-    <row r="791" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="791" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C791" s="4"/>
     </row>
-    <row r="792" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="792" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C792" s="4"/>
     </row>
-    <row r="793" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="793" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C793" s="4"/>
     </row>
-    <row r="794" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="794" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C794" s="4"/>
     </row>
-    <row r="795" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="795" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C795" s="4"/>
     </row>
-    <row r="796" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="796" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C796" s="4"/>
     </row>
-    <row r="797" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="797" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C797" s="4"/>
     </row>
-    <row r="798" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="798" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C798" s="4"/>
     </row>
-    <row r="799" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="799" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C799" s="4"/>
     </row>
-    <row r="800" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="800" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C800" s="4"/>
     </row>
-    <row r="801" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="801" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C801" s="4"/>
     </row>
-    <row r="802" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="802" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C802" s="4"/>
     </row>
-    <row r="803" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="803" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C803" s="4"/>
     </row>
-    <row r="804" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="804" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C804" s="4"/>
     </row>
-    <row r="805" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="805" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C805" s="4"/>
     </row>
-    <row r="806" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="806" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C806" s="4"/>
     </row>
-    <row r="807" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="807" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C807" s="4"/>
     </row>
-    <row r="808" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="808" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C808" s="4"/>
     </row>
-    <row r="809" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="809" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C809" s="4"/>
     </row>
-    <row r="810" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="810" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C810" s="4"/>
     </row>
-    <row r="811" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="811" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C811" s="4"/>
     </row>
-    <row r="812" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="812" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C812" s="4"/>
     </row>
-    <row r="813" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="813" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C813" s="4"/>
     </row>
-    <row r="814" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="814" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C814" s="4"/>
     </row>
-    <row r="815" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="815" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C815" s="4"/>
     </row>
-    <row r="816" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="816" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C816" s="4"/>
     </row>
-    <row r="817" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="817" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C817" s="4"/>
     </row>
-    <row r="818" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="818" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C818" s="4"/>
     </row>
-    <row r="819" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="819" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C819" s="4"/>
     </row>
-    <row r="820" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="820" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C820" s="4"/>
     </row>
-    <row r="821" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="821" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C821" s="4"/>
     </row>
-    <row r="822" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="822" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C822" s="4"/>
     </row>
-    <row r="823" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="823" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C823" s="4"/>
     </row>
-    <row r="824" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="824" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C824" s="4"/>
     </row>
-    <row r="825" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="825" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C825" s="4"/>
     </row>
-    <row r="826" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="826" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C826" s="4"/>
     </row>
-    <row r="827" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="827" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C827" s="4"/>
     </row>
-    <row r="828" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="828" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C828" s="4"/>
     </row>
-    <row r="829" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="829" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C829" s="4"/>
     </row>
-    <row r="830" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="830" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C830" s="4"/>
     </row>
-    <row r="831" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="831" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C831" s="4"/>
     </row>
-    <row r="832" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="832" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C832" s="4"/>
     </row>
-    <row r="833" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="833" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C833" s="4"/>
     </row>
-    <row r="834" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="834" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C834" s="4"/>
     </row>
-    <row r="835" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="835" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C835" s="4"/>
     </row>
-    <row r="836" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="836" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C836" s="4"/>
     </row>
-    <row r="837" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="837" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C837" s="4"/>
     </row>
-    <row r="838" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="838" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C838" s="4"/>
     </row>
-    <row r="839" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="839" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C839" s="4"/>
     </row>
-    <row r="840" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="840" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C840" s="4"/>
     </row>
-    <row r="841" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="841" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C841" s="4"/>
     </row>
-    <row r="842" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="842" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C842" s="4"/>
     </row>
-    <row r="843" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="843" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C843" s="4"/>
     </row>
-    <row r="844" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="844" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C844" s="4"/>
     </row>
-    <row r="845" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="845" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C845" s="4"/>
     </row>
-    <row r="846" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="846" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C846" s="4"/>
     </row>
-    <row r="847" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="847" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C847" s="4"/>
     </row>
-    <row r="848" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="848" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C848" s="4"/>
     </row>
-    <row r="849" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="849" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C849" s="4"/>
     </row>
-    <row r="850" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="850" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C850" s="4"/>
     </row>
-    <row r="851" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="851" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C851" s="4"/>
     </row>
-    <row r="852" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="852" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C852" s="4"/>
     </row>
-    <row r="853" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="853" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C853" s="4"/>
     </row>
-    <row r="854" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="854" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C854" s="4"/>
     </row>
-    <row r="855" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="855" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C855" s="4"/>
     </row>
-    <row r="856" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="856" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C856" s="4"/>
     </row>
-    <row r="857" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="857" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C857" s="4"/>
     </row>
-    <row r="858" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="858" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C858" s="4"/>
     </row>
-    <row r="859" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="859" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C859" s="4"/>
     </row>
-    <row r="860" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="860" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C860" s="4"/>
     </row>
-    <row r="861" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="861" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C861" s="4"/>
     </row>
-    <row r="862" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="862" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C862" s="4"/>
     </row>
-    <row r="863" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="863" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C863" s="4"/>
     </row>
-    <row r="864" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="864" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C864" s="4"/>
     </row>
-    <row r="865" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="865" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C865" s="4"/>
     </row>
-    <row r="866" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="866" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C866" s="4"/>
     </row>
-    <row r="867" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="867" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C867" s="4"/>
     </row>
-    <row r="868" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="868" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C868" s="4"/>
     </row>
-    <row r="869" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="869" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C869" s="4"/>
     </row>
-    <row r="870" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="870" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C870" s="4"/>
     </row>
-    <row r="871" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="871" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C871" s="4"/>
     </row>
-    <row r="872" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="872" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C872" s="4"/>
     </row>
-    <row r="873" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="873" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C873" s="4"/>
     </row>
-    <row r="874" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="874" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C874" s="4"/>
     </row>
-    <row r="875" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="875" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C875" s="4"/>
     </row>
-    <row r="876" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="876" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C876" s="4"/>
     </row>
-    <row r="877" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="877" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C877" s="4"/>
     </row>
-    <row r="878" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="878" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C878" s="4"/>
     </row>
-    <row r="879" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="879" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C879" s="4"/>
     </row>
-    <row r="880" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="880" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C880" s="4"/>
     </row>
-    <row r="881" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="881" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C881" s="4"/>
     </row>
-    <row r="882" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="882" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C882" s="4"/>
     </row>
-    <row r="883" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="883" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C883" s="4"/>
     </row>
-    <row r="884" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="884" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C884" s="4"/>
     </row>
-    <row r="885" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="885" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C885" s="4"/>
     </row>
-    <row r="886" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="886" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C886" s="4"/>
     </row>
-    <row r="887" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="887" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C887" s="4"/>
     </row>
-    <row r="888" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="888" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C888" s="4"/>
     </row>
-    <row r="889" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="889" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C889" s="4"/>
     </row>
-    <row r="890" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="890" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C890" s="4"/>
     </row>
-    <row r="891" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="891" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C891" s="4"/>
     </row>
-    <row r="892" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="892" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C892" s="4"/>
     </row>
-    <row r="893" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="893" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C893" s="4"/>
     </row>
-    <row r="894" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="894" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C894" s="4"/>
     </row>
-    <row r="895" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="895" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C895" s="4"/>
     </row>
-    <row r="896" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="896" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C896" s="4"/>
     </row>
-    <row r="897" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="897" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C897" s="4"/>
     </row>
-    <row r="898" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="898" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C898" s="4"/>
     </row>
-    <row r="899" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="899" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C899" s="4"/>
     </row>
-    <row r="900" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="900" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C900" s="4"/>
     </row>
-    <row r="901" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="901" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C901" s="4"/>
     </row>
-    <row r="902" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="902" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C902" s="4"/>
     </row>
-    <row r="903" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="903" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C903" s="4"/>
     </row>
-    <row r="904" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="904" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C904" s="4"/>
     </row>
-    <row r="905" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="905" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C905" s="4"/>
     </row>
-    <row r="906" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="906" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C906" s="4"/>
+    </row>
+    <row r="907" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C907" s="4"/>
+    </row>
+    <row r="908" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C908" s="4"/>
+    </row>
+    <row r="909" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C909" s="4"/>
+    </row>
+    <row r="910" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C910" s="4"/>
+    </row>
+    <row r="911" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C911" s="4"/>
+    </row>
+    <row r="912" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C912" s="4"/>
+    </row>
+    <row r="913" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C913" s="4"/>
+    </row>
+    <row r="914" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C914" s="4"/>
+    </row>
+    <row r="915" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C915" s="4"/>
+    </row>
+    <row r="916" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C916" s="4"/>
+    </row>
+    <row r="917" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C917" s="4"/>
+    </row>
+    <row r="918" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C918" s="4"/>
+    </row>
+    <row r="919" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C919" s="4"/>
+    </row>
+    <row r="920" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C920" s="4"/>
+    </row>
+    <row r="921" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C921" s="4"/>
+    </row>
+    <row r="922" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C922" s="4"/>
+    </row>
+    <row r="923" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C923" s="4"/>
+    </row>
+    <row r="924" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C924" s="4"/>
+    </row>
+    <row r="925" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C925" s="4"/>
+    </row>
+    <row r="926" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C926" s="4"/>
+    </row>
+    <row r="927" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C927" s="4"/>
+    </row>
+    <row r="928" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C928" s="4"/>
+    </row>
+    <row r="929" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C929" s="4"/>
+    </row>
+    <row r="930" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C930" s="4"/>
+    </row>
+    <row r="931" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C931" s="4"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="B10:P55" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B10:P80" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="F1:P6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C67:C906" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C92:C931" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"VARIABLE,ARRAY,RECORD"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M15:M16 M18:M19 M21:M22 M27:M28 M30:M31 M33:M34 M36:M40 M46:M47 M49:M50 M52:M55 M24:M25 M42:M44 M12:M13" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M15:M16 M18:M19 M21:M22 M27:M28 M30:M31 M33:M34 M71:M72 M74:M75 M77:M80 M24:M25 M12:M13 M36:M61 M63:M69" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"rx,tx"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Object Code value" error="The Object code value shall be:_x000a_VARIABLE_x000a_RECORD_x000a_ARRAY" sqref="C12:C13 C15:C16 C18:C19 C21:C22 C27:C28 C30:C31 C33:C34 C36:C40 C46:C47 C49:C50 C52:C66 C24:C25 C42:C44" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Object Code value" error="The Object code value shall be:_x000a_VARIABLE_x000a_RECORD_x000a_ARRAY" sqref="C12:C13 C15:C16 C18:C19 C21:C22 C27:C28 C30:C31 C33:C34 C71:C72 C74:C75 C77:C91 C24:C25 C63:C69 C36:C61" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"VARIABLE,ARRAY,RECORD"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" sqref="C11 C14 C17 C20 C23 C26 C29 C32 C35 C41 C45 C48 C51" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Category" error="The value for the entry category shall be _x000a_M : (mandatory)_x000a_O : (optional) _x000a_C : (conditional)" sqref="J12:J13 J15:J16 J18:J19 J21:J22 J27:J28 J30:J31 J33:J34 J36:J40 J46:J47 J49:J50 J52:J66 J24:J25 J42:J44" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="C11 C14 C17 C20 C23 C26 C29 C32 C35 C62:C67 C70 C73 C76" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Category" error="The value for the entry category shall be _x000a_M : (mandatory)_x000a_O : (optional) _x000a_C : (conditional)" sqref="J12:J13 J15:J16 J18:J19 J21:J22 J27:J28 J30:J31 J33:J34 J71:J72 J74:J75 J77:J91 J24:J25 J63:J69 J36:J61" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"M,O,C"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Backup/Setting Flag" error="The entry flag shall be_x000a_B : (Backup)_x000a_S : (Setting)" sqref="K12:K13 K15:K16 K18:K19 K21:K22 K27:K28 K30:K31 K33:K34 K36:K40 K46:K47 K49:K50 K52:K66 K24:K25 K42:K44" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Backup/Setting Flag" error="The entry flag shall be_x000a_B : (Backup)_x000a_S : (Setting)" sqref="K12:K13 K15:K16 K18:K19 K21:K22 K27:K28 K30:K31 K33:K34 K71:K72 K74:K75 K77:K91 K24:K25 K63:K69 K36:K61" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"B,S"</formula1>
     </dataValidation>
   </dataValidations>
